--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3511430.651390016</v>
+        <v>3505709.039422131</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836232</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095099</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8149915.112758834</v>
+        <v>8149915.112758832</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>87.21049276636171</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>341.762586537471</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>68.24504398675694</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481178</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>112.6571527960852</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>311.4936872159399</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.107505357768158</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>394.2018941786167</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>320.4553725445203</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>205.1478855987995</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396203</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.76596394327473</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>204.2045892045957</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
-        <v>110.7115619691729</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2259,7 +2259,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>24.76976233530648</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>239.0480076404118</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.15063074750115</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881742</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2772,13 +2772,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>166.3150030851668</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>131.7942461569942</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>189.6111313293491</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247565</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>24.01006515217592</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>223.9373936267263</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>102.8019947957061</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785986</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>74.75769145492406</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.78595143231563</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>66.52893920294751</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>171.1096626559154</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1450.540220654586</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1450.540220654586</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1092.274522047835</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>706.4862694495912</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>295.5003646599836</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1837.140060718708</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="X2" t="n">
-        <v>1837.140060718708</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y2" t="n">
-        <v>1837.140060718708</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>415.489254012808</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>415.489254012808</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.5839652830421</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.372765927088</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862884</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862884</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157405</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157405</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1767.323137322976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1377.183805347164</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027642002</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.821920859872</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417903</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517454</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.1369047015218</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>498.1369047015218</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477908</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629037</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1515.02307474038</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1146.060557799969</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D8" t="n">
-        <v>787.7948591932184</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949741</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>452.1267133139167</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862884</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862884</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1888.48883300146</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1888.48883300146</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1515.02307474038</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1515.02307474038</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036442</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614628</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430001</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150932</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027575</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>520.9088977430001</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>520.9088977430001</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>520.9088977430001</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>520.9088977430001</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.9088977430001</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5029,64 +5029,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>1002.806306216375</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M11" t="n">
-        <v>2536.153662641309</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N11" t="n">
-        <v>3362.809616117416</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5132,28 +5132,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.9531749224914</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C13" t="n">
-        <v>487.0169919945844</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D13" t="n">
-        <v>487.0169919945844</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258583</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>1198.376021052696</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>908.9588510157357</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>680.9693001177184</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>655.9531749224914</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>3515.905934867957</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>4018.878405747294</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4413.652772104471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4661.939133860154</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,64 +5333,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431757</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1355.6435265574</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1149.376264734577</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>859.959094697616</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>631.9695437995987</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>411.1769646560685</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.5269503710301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1844.513605529782</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1555.410738655425</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1300.726250449538</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1011.309080412578</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>783.3195295145603</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>562.5269503710301</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5740,64 +5740,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>685.1208104866375</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1549.639626139992</v>
       </c>
       <c r="M20" t="n">
-        <v>2330.649739272054</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330836</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>656.9233744498081</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C22" t="n">
-        <v>656.9233744498081</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D22" t="n">
-        <v>506.8067350374723</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E22" t="n">
-        <v>506.8067350374723</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1649.807162734203</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1649.807162734203</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>1395.122674528316</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W22" t="n">
-        <v>1105.705504491355</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="X22" t="n">
-        <v>877.7159535933382</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y22" t="n">
-        <v>656.9233744498081</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,67 +5974,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2707.641918722172</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.420735780954</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.393206660291</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3794.457761190642</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C25" t="n">
-        <v>3625.521578262736</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D25" t="n">
-        <v>3475.4049388504</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>3475.4049388504</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>3328.51499135249</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4646.654971492904</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>4424.88835606243</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>4424.88835606243</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>4424.88835606243</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>4424.88835606243</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>4196.898805164413</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>3976.106226020882</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143013</v>
@@ -6214,64 +6214,64 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2782.232616025903</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.00145687072</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750057</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107235</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6296,19 +6296,19 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3499.147081080646</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>3330.210898152739</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>3330.210898152739</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>3182.297804570346</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>3182.297804570346</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.26929076341</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210346</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159222</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207267</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913132</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833545</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267204</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419719</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177247</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>4688.221265177247</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>4466.454649746773</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>4177.351782872416</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>4009.356830261137</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>3719.939660224176</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>3719.939660224176</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>3499.147081080646</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2883.993034926781</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.5459590456827</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C31" t="n">
-        <v>801.6097761177758</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D31" t="n">
         <v>801.6097761177758</v>
@@ -6615,10 +6615,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1453.219998149587</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1198.5355099437</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W31" t="n">
-        <v>1198.5355099437</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="X31" t="n">
-        <v>970.5459590456827</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="Y31" t="n">
-        <v>970.5459590456827</v>
+        <v>1253.788099626699</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074197</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427189</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>1923.729615463052</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2903.481887689698</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906984</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973178</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161908</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549396</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494841</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763691</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089872</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468547</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902951</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.10246054955</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142066</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635546</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313401</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447817</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216074</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517386</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3548.711351396903</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C34" t="n">
-        <v>3379.775168468997</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D34" t="n">
-        <v>3379.775168468997</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E34" t="n">
-        <v>3231.862074886603</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F34" t="n">
-        <v>3084.972127388693</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>4466.454649746774</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>4177.351782872417</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>3951.152395370673</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>3951.152395370673</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X34" t="n">
-        <v>3951.152395370673</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y34" t="n">
-        <v>3730.359816227143</v>
+        <v>901.3723255570255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001577</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>366.7757143850192</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1021.499046520319</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1472.533259768727</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2006.065164440651</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2985.817436667297</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367486</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086359</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.154595425108</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419652</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012235</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505715</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.82648218357</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317985</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086243</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358041</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.517670152508</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387554</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>578.4172407837245</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
         <v>1005.387693892251</v>
@@ -7113,7 +7113,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
         <v>1956.343466104703</v>
@@ -7125,22 +7125,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T37" t="n">
-        <v>1570.986725905515</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U37" t="n">
-        <v>1281.883859031159</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1027.199370825272</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1027.199370825272</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>799.2098199272547</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>578.4172407837245</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,13 +7159,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7180,19 +7180,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3931.363334276589</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4326.137700633767</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188665</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,64 +7229,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
         <v>95.56103444839441</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0738540998329</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7399,16 +7399,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
@@ -7420,43 +7420,43 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2536.15366264131</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3362.809616117416</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>806.069814334827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>637.1336314069201</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>487.0169919945844</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1163.957642384228</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>874.540472347267</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>874.540472347267</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>806.069814334827</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7654,46 +7654,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2949.638265046256</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3496.417082105038</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3999.389552984375</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4394.163919341553</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,64 +7703,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3695.651780055458</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C46" t="n">
-        <v>3526.715597127552</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D46" t="n">
-        <v>3376.598957715216</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E46" t="n">
-        <v>3228.685864132823</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F46" t="n">
-        <v>3081.795916634912</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>3081.795916634912</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>4399.118398302892</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V46" t="n">
-        <v>4144.433910097006</v>
+        <v>1494.402556143564</v>
       </c>
       <c r="W46" t="n">
-        <v>4144.433910097006</v>
+        <v>1204.985386106604</v>
       </c>
       <c r="X46" t="n">
-        <v>3916.444359198988</v>
+        <v>1204.985386106604</v>
       </c>
       <c r="Y46" t="n">
-        <v>3695.651780055458</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142025</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270198</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627893</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260154</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8701,19 +8701,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>282.7041781993179</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>317.514626110615</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>57.67224444723733</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>67.53663776704161</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>411.0304280899003</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>374.1693948021951</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>103.7862464855135</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>246.4545694808431</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>315.167921710931</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>142.1686942807573</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.808331262509455e-12</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>83.16722118949451</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10597,19 +10597,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.35488666587432</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11068,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>282.7041781993166</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,22 +11302,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>11.64153443578837</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.8186894088201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>47.93305411923234</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,10 +23940,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
-        <v>108.8373873069963</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>194.7791869408627</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>47.47499069617925</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>162.5760987035354</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>148.6183945839408</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>85.82264023866122</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>48.03773402494309</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>96.60070687626379</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>155.8219150297614</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>28.20024969710167</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25365,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>116.7469544804631</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>105.0742887270143</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>71.67627119164511</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.7987019197791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>78.22607571137327</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>81.02798066791257</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="E2" t="n">
         <v>714747.2163965704</v>
       </c>
       <c r="F2" t="n">
+        <v>714747.2163965702</v>
+      </c>
+      <c r="G2" t="n">
         <v>714747.2163965701</v>
       </c>
-      <c r="G2" t="n">
-        <v>714747.21639657</v>
-      </c>
       <c r="H2" t="n">
-        <v>714747.2163965704</v>
+        <v>714747.2163965706</v>
       </c>
       <c r="I2" t="n">
         <v>714747.2163965706</v>
       </c>
       <c r="J2" t="n">
-        <v>714747.2163965702</v>
+        <v>714747.2163965704</v>
       </c>
       <c r="K2" t="n">
         <v>714747.2163965704</v>
       </c>
       <c r="L2" t="n">
-        <v>714747.2163965704</v>
+        <v>714747.2163965702</v>
       </c>
       <c r="M2" t="n">
+        <v>714747.2163965703</v>
+      </c>
+      <c r="N2" t="n">
         <v>714747.2163965702</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>714747.2163965708</v>
+      </c>
+      <c r="P2" t="n">
         <v>714747.2163965706</v>
-      </c>
-      <c r="O2" t="n">
-        <v>714747.2163965706</v>
-      </c>
-      <c r="P2" t="n">
-        <v>714747.2163965708</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.368067271163454e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389446</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,34 +26420,34 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571281</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571281</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231919002</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18148.49231918996</v>
       </c>
       <c r="M4" t="n">
         <v>18148.49231918995</v>
@@ -26456,10 +26456,10 @@
         <v>18148.49231918993</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="G5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="J5" t="n">
-        <v>96383.51825371363</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371363</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96383.51825371363</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-117238.0512572274</v>
       </c>
       <c r="C6" t="n">
+        <v>472729.8279573171</v>
+      </c>
+      <c r="D6" t="n">
         <v>472729.8279573175</v>
       </c>
-      <c r="D6" t="n">
-        <v>472729.8279573172</v>
-      </c>
       <c r="E6" t="n">
-        <v>-127162.2081697398</v>
+        <v>-127834.1630719976</v>
       </c>
       <c r="F6" t="n">
-        <v>600215.2058236665</v>
+        <v>599543.2509214088</v>
       </c>
       <c r="G6" t="n">
-        <v>600215.2058236662</v>
+        <v>599543.2509214086</v>
       </c>
       <c r="H6" t="n">
-        <v>600215.2058236669</v>
+        <v>599543.2509214091</v>
       </c>
       <c r="I6" t="n">
-        <v>600215.205823667</v>
+        <v>599543.2509214091</v>
       </c>
       <c r="J6" t="n">
-        <v>423791.9866310738</v>
+        <v>423120.0317288159</v>
       </c>
       <c r="K6" t="n">
-        <v>600215.2058236669</v>
+        <v>599543.250921409</v>
       </c>
       <c r="L6" t="n">
-        <v>600215.2058236672</v>
+        <v>599543.2509214088</v>
       </c>
       <c r="M6" t="n">
-        <v>470572.8909847218</v>
+        <v>469900.9360824642</v>
       </c>
       <c r="N6" t="n">
-        <v>600215.2058236666</v>
+        <v>599543.2509214086</v>
       </c>
       <c r="O6" t="n">
-        <v>600215.205823667</v>
+        <v>599543.2509214093</v>
       </c>
       <c r="P6" t="n">
-        <v>600215.2058236672</v>
+        <v>599543.2509214091</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170863</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,28 +26974,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.225657850375</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.225657850375</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.225657850375</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>326.5736772544333</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27438,13 +27438,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>7.478382179942002</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>183.8925993370711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>257.0739478823838</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>74.74425144011366</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.7244748241691</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853704</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491435</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>19.58227584217826</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>7.296885925614617</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>81.13398864317821</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="11">
@@ -29277,19 +29277,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.274058111942133e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554462</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.3907153663379</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473548</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141103</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839647</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078605</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644437</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813574</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175836</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383793</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,37 +33727,37 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33766,7 +33766,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33815,16 +33815,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
         <v>300.7247737883114</v>
@@ -33833,19 +33833,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780294</v>
@@ -34447,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34938,25 +34938,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770685</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047536</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873142</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307157</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>556.5257492814159</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>835.0060136122291</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>856.4357419408416</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>117.2854429894621</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>404.7279243224421</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>949.9515439201271</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>913.0905106324219</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>502.5482327048853</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>798.7564048937546</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,16 +36846,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>713.9299079303029</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.336699126565</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923318</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302264</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248953</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>650.2216951689762</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.109295463624</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>273.9542221582069</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.336699126565</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248953</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509642</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193715</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.109295463624</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222467</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,13 +37557,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.1491914695938</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37788,22 +37788,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>835.0060136122281</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38022,22 +38022,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>262.4358392395079</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3505709.039422131</v>
+        <v>3509114.53054658</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>89.95825846367141</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>341.762586537471</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210771</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>311.4936872159399</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>33.84234274505316</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>394.2018941786167</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>148.8271244776258</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686252</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>59.90320919298897</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>203.4068132192029</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>239.0480076404118</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.25588147840188</v>
+        <v>160.8695265197237</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2535,7 +2535,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>59.35991151980232</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>131.7942461569942</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.01006515217592</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>7.601081015447828</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>181.1375494785986</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3562,7 +3562,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>177.8735323273924</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>36.15999212057524</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>171.1096626559154</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2375.075986121803</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2044.013098778233</v>
       </c>
       <c r="W2" t="n">
-        <v>2351.934357141989</v>
+        <v>1691.244443508119</v>
       </c>
       <c r="X2" t="n">
-        <v>1978.468598880909</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1317.778685247039</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,37 +4494,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
         <v>502.7251118619119</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4609,10 +4609,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.509002921313</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4649,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>88.12716641132724</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>863.1126181035243</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>863.1126181035243</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>863.1126181035243</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>452.1267133139167</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,67 +5026,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K11" t="n">
-        <v>1002.806306216375</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L11" t="n">
-        <v>1453.840519464783</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294612</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353394</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5144,16 +5144,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839441</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839441</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839441</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839441</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>156.0693265625247</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5263,43 +5263,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2536.15366264131</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3515.905934867957</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4018.878405747294</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4413.652772104471</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4661.939133860154</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5314,16 +5314,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5348,28 +5348,28 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5530,37 +5530,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,22 +5624,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,13 +5697,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
         <v>1270.093287563029</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>685.1208104866375</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1549.639626139992</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.189928969821</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1023.336921276364</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1667.240599230347</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1425.777965250134</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>1425.777965250134</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>1204.985386106604</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3195.001976422504</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3697.97444730184</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
         <v>4195.497197679677</v>
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>243.4741280307875</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>243.4741280307875</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>243.4741280307875</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423046</v>
+        <v>425.7583423057196</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6253,25 +6253,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6478,37 +6478,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6654,19 +6654,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1253.788099626699</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1253.788099626699</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1253.788099626699</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1253.788099626699</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6694,34 +6694,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,22 +6809,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>877.1197344942216</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C34" t="n">
-        <v>708.1835515663147</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
         <v>263.2638710736754</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570255</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X34" t="n">
-        <v>901.3723255570255</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y34" t="n">
-        <v>901.3723255570255</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6934,37 +6934,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
         <v>4461.783306331037</v>
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7031,25 +7031,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,22 +7110,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
         <v>1270.093287563029</v>
@@ -7180,13 +7180,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232731</v>
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839441</v>
@@ -7365,19 +7365,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1363.220731826922</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1108.536243621035</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>819.1190735840747</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>591.1295226860574</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.9043113423046</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2985.817436667297</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>132.086279014632</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>132.086279014632</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>132.086279014632</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>132.086279014632</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839441</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7727,34 +7727,34 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1023.336921276364</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839441</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1494.402556143564</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1204.985386106604</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.985386106604</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.985386106604</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8227,7 +8227,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119837</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K11" t="n">
-        <v>219.3344627260154</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.67224444723733</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>67.53663776704161</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>103.7862464855135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>248.8400772687159</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>102.8529310510262</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>84.8518057213318</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23466,10 +23466,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>16.14213605696631</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,7 +23703,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>47.47499069617925</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.5760987035354</v>
+        <v>18.96245366221362</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>120.472068662135</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24618,10 +24618,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.03773402494309</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.8219150297614</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>182.1679443159941</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>105.0742887270143</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>108.3383058782204</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>129.865816138453</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26073,25 +26073,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>81.02798066791257</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>692394.6160973813</v>
+        <v>692394.6160973815</v>
       </c>
     </row>
     <row r="10">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
         <v>714747.2163965704</v>
       </c>
       <c r="F2" t="n">
+        <v>714747.2163965701</v>
+      </c>
+      <c r="G2" t="n">
         <v>714747.2163965702</v>
-      </c>
-      <c r="G2" t="n">
-        <v>714747.2163965701</v>
       </c>
       <c r="H2" t="n">
         <v>714747.2163965706</v>
@@ -26337,25 +26337,25 @@
         <v>714747.2163965706</v>
       </c>
       <c r="J2" t="n">
+        <v>714747.2163965707</v>
+      </c>
+      <c r="K2" t="n">
+        <v>714747.2163965706</v>
+      </c>
+      <c r="L2" t="n">
         <v>714747.2163965704</v>
       </c>
-      <c r="K2" t="n">
-        <v>714747.2163965704</v>
-      </c>
-      <c r="L2" t="n">
-        <v>714747.2163965702</v>
-      </c>
       <c r="M2" t="n">
-        <v>714747.2163965703</v>
+        <v>714747.2163965701</v>
       </c>
       <c r="N2" t="n">
-        <v>714747.2163965702</v>
+        <v>714747.2163965706</v>
       </c>
       <c r="O2" t="n">
-        <v>714747.2163965708</v>
+        <v>714747.2163965706</v>
       </c>
       <c r="P2" t="n">
-        <v>714747.2163965706</v>
+        <v>714747.2163965707</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389446</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918993</v>
@@ -26444,16 +26444,16 @@
         <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="O4" t="n">
         <v>18148.49231918993</v>
@@ -26478,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117238.0512572274</v>
+        <v>-117238.0512572271</v>
       </c>
       <c r="C6" t="n">
-        <v>472729.8279573171</v>
+        <v>472729.8279573173</v>
       </c>
       <c r="D6" t="n">
-        <v>472729.8279573175</v>
+        <v>472729.8279573173</v>
       </c>
       <c r="E6" t="n">
-        <v>-127834.1630719976</v>
+        <v>-127229.4036599657</v>
       </c>
       <c r="F6" t="n">
-        <v>599543.2509214088</v>
+        <v>600148.0103334407</v>
       </c>
       <c r="G6" t="n">
-        <v>599543.2509214086</v>
+        <v>600148.0103334408</v>
       </c>
       <c r="H6" t="n">
-        <v>599543.2509214091</v>
+        <v>600148.0103334412</v>
       </c>
       <c r="I6" t="n">
-        <v>599543.2509214091</v>
+        <v>600148.0103334412</v>
       </c>
       <c r="J6" t="n">
-        <v>423120.0317288159</v>
+        <v>423724.7911408484</v>
       </c>
       <c r="K6" t="n">
-        <v>599543.250921409</v>
+        <v>600148.0103334412</v>
       </c>
       <c r="L6" t="n">
-        <v>599543.2509214088</v>
+        <v>600148.0103334411</v>
       </c>
       <c r="M6" t="n">
-        <v>469900.9360824642</v>
+        <v>470505.695494496</v>
       </c>
       <c r="N6" t="n">
-        <v>599543.2509214086</v>
+        <v>600148.0103334412</v>
       </c>
       <c r="O6" t="n">
-        <v>599543.2509214093</v>
+        <v>600148.0103334412</v>
       </c>
       <c r="P6" t="n">
-        <v>599543.2509214091</v>
+        <v>600148.0103334413</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>161.2659090446179</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>7.478382179942002</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37316471551392</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>74.74425144011366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>114.7731302731592</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>19.58227584217826</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>48.19472341080782</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>137.6958738589652</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34465,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492232</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,10 +35266,10 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K11" t="n">
-        <v>556.5257492814159</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
@@ -35661,7 +35661,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35670,7 +35670,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>117.2854429894621</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -36123,7 +36123,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>404.7279243224421</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>502.5482327048853</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>647.6020634880878</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>655.1547664639377</v>
       </c>
       <c r="O41" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
